--- a/tests/data/empty.xlsx
+++ b/tests/data/empty.xlsx
@@ -29,6 +29,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
